--- a/Summary_for_Sample_LR_Model.xlsx
+++ b/Summary_for_Sample_LR_Model.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,236 +411,202 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.1862352126868526</v>
+        <v>0.1387899531097405</v>
       </c>
       <c r="B2">
-        <v>0.04678282548577795</v>
+        <v>0.03914180814872054</v>
       </c>
       <c r="C2">
-        <v>3.980845764509637</v>
+        <v>3.545823754038231</v>
       </c>
       <c r="D2">
-        <v>6.867049745239429e-05</v>
+        <v>0.0003913878810184778</v>
       </c>
       <c r="E2">
-        <v>1.941</v>
+        <v>1.466</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.2693231539326003</v>
+        <v>0.1321767733134403</v>
       </c>
       <c r="B3">
-        <v>0.03931171072493105</v>
+        <v>0.03918708777761198</v>
       </c>
       <c r="C3">
-        <v>6.85096499150312</v>
+        <v>3.372967495404299</v>
       </c>
       <c r="D3">
-        <v>7.335346771122433e-12</v>
+        <v>0.0007436273065394205</v>
       </c>
       <c r="E3">
-        <v>1.552</v>
+        <v>1.454</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.1004265492012875</v>
+        <v>0.139010761023405</v>
       </c>
       <c r="B4">
-        <v>0.02754422046645141</v>
+        <v>0.02932749147019469</v>
       </c>
       <c r="C4">
-        <v>3.646011667805449</v>
+        <v>4.739947198166628</v>
       </c>
       <c r="D4">
-        <v>0.0002663418875430486</v>
+        <v>2.137739203028708e-06</v>
       </c>
       <c r="E4">
-        <v>1.014</v>
+        <v>1.009</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.1538999745589312</v>
+        <v>0.1789237596779445</v>
       </c>
       <c r="B5">
-        <v>0.02930090803591424</v>
+        <v>0.03848168086892773</v>
       </c>
       <c r="C5">
-        <v>5.252396081728778</v>
+        <v>4.649582753086483</v>
       </c>
       <c r="D5">
-        <v>1.501331731744092e-07</v>
+        <v>3.326072131377621e-06</v>
       </c>
       <c r="E5">
-        <v>1.011</v>
+        <v>1.482</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.1606189432234519</v>
+        <v>0.5896458485383199</v>
       </c>
       <c r="B6">
-        <v>0.03061440042559815</v>
+        <v>0.03375276505388262</v>
       </c>
       <c r="C6">
-        <v>5.24651605096113</v>
+        <v>17.46955686732671</v>
       </c>
       <c r="D6">
-        <v>1.550023503318957e-07</v>
+        <v>2.44385415150239e-68</v>
       </c>
       <c r="E6">
-        <v>1.047</v>
+        <v>1.068</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.2058443440460543</v>
+        <v>0.1690423234800643</v>
       </c>
       <c r="B7">
-        <v>0.05230759455692543</v>
+        <v>0.03391660016577125</v>
       </c>
       <c r="C7">
-        <v>3.935266872615171</v>
+        <v>4.984058621850382</v>
       </c>
       <c r="D7">
-        <v>8.310429883338756e-05</v>
+        <v>6.226420173367331e-07</v>
       </c>
       <c r="E7">
-        <v>2.465</v>
+        <v>1.119</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>-0.3664334500241267</v>
+        <v>0.1598505233033204</v>
       </c>
       <c r="B8">
-        <v>0.08486963391543059</v>
+        <v>0.0334548220971973</v>
       </c>
       <c r="C8">
-        <v>-4.317603754356521</v>
+        <v>4.778101131098585</v>
       </c>
       <c r="D8">
-        <v>1.577322692428263e-05</v>
+        <v>1.769583782460926e-06</v>
       </c>
       <c r="E8">
-        <v>6.534</v>
+        <v>1.018</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>-0.1941329812738683</v>
+        <v>0.1308310092372296</v>
       </c>
       <c r="B9">
-        <v>0.03091194131464547</v>
+        <v>0.03312073277142814</v>
       </c>
       <c r="C9">
-        <v>-6.280193770356699</v>
+        <v>3.950124236082482</v>
       </c>
       <c r="D9">
-        <v>3.381513100252899e-10</v>
+        <v>7.811063847392322e-05</v>
       </c>
       <c r="E9">
-        <v>1.01</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.1284907310655212</v>
+        <v>0.09441272582165894</v>
       </c>
       <c r="B10">
-        <v>0.04117559206116043</v>
+        <v>0.02742322653543831</v>
       </c>
       <c r="C10">
-        <v>3.120555762128852</v>
+        <v>3.442801513514534</v>
       </c>
       <c r="D10">
-        <v>0.001805101184475442</v>
+        <v>0.0005757216924978548</v>
       </c>
       <c r="E10">
-        <v>1.937</v>
+        <v>1.015</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>-0.1938940035308706</v>
+        <v>0.1348725950536856</v>
       </c>
       <c r="B11">
-        <v>0.07837372594234446</v>
+        <v>0.03113009742329271</v>
       </c>
       <c r="C11">
-        <v>-2.473966896425321</v>
+        <v>4.332546513419159</v>
       </c>
       <c r="D11">
-        <v>0.01336220774843215</v>
+        <v>1.473945101251338e-05</v>
       </c>
       <c r="E11">
-        <v>5.618</v>
+        <v>1.109</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.186741969559479</v>
+        <v>0.1454387032560523</v>
       </c>
       <c r="B12">
-        <v>0.04815338099871141</v>
+        <v>0.03085162435369979</v>
       </c>
       <c r="C12">
-        <v>3.878065583068326</v>
+        <v>4.71413438685315</v>
       </c>
       <c r="D12">
-        <v>0.0001052903365842967</v>
+        <v>2.427404268360595e-06</v>
       </c>
       <c r="E12">
-        <v>2.188</v>
+        <v>1.053</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>0.5669859391491998</v>
+        <v>-1.427338443907308</v>
       </c>
       <c r="B13">
-        <v>0.03405594993721547</v>
+        <v>0.03392686863826552</v>
       </c>
       <c r="C13">
-        <v>16.64866022514357</v>
+        <v>-42.07103399744466</v>
       </c>
       <c r="D13">
-        <v>3.0945274257875e-62</v>
-      </c>
-      <c r="E13">
-        <v>1.098</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>0.1743664247952137</v>
-      </c>
-      <c r="B14">
-        <v>0.04540386939297013</v>
-      </c>
-      <c r="C14">
-        <v>3.840342841401328</v>
-      </c>
-      <c r="D14">
-        <v>0.00012286260608958</v>
-      </c>
-      <c r="E14">
-        <v>1.91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>-1.426601434544065</v>
-      </c>
-      <c r="B15">
-        <v>0.03394619412902589</v>
-      </c>
-      <c r="C15">
-        <v>-42.02537194955359</v>
-      </c>
-      <c r="D15">
         <v>0</v>
       </c>
     </row>

--- a/Summary_for_Sample_LR_Model.xlsx
+++ b/Summary_for_Sample_LR_Model.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,202 +411,219 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.1387899531097405</v>
+        <v>0.1539904918020898</v>
       </c>
       <c r="B2">
-        <v>0.03914180814872054</v>
+        <v>0.02967996784325758</v>
       </c>
       <c r="C2">
-        <v>3.545823754038231</v>
+        <v>5.188364509534735</v>
       </c>
       <c r="D2">
-        <v>0.0003913878810184778</v>
+        <v>2.121490321930391e-07</v>
       </c>
       <c r="E2">
-        <v>1.466</v>
+        <v>1.061</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.1321767733134403</v>
+        <v>0.4758799425243964</v>
       </c>
       <c r="B3">
-        <v>0.03918708777761198</v>
+        <v>0.05053636257183669</v>
       </c>
       <c r="C3">
-        <v>3.372967495404299</v>
+        <v>9.416584777900074</v>
       </c>
       <c r="D3">
-        <v>0.0007436273065394205</v>
+        <v>4.659987381596779e-21</v>
       </c>
       <c r="E3">
-        <v>1.454</v>
+        <v>2.618</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.139010761023405</v>
+        <v>0.1427894820662683</v>
       </c>
       <c r="B4">
-        <v>0.02932749147019469</v>
+        <v>0.02920515459780759</v>
       </c>
       <c r="C4">
-        <v>4.739947198166628</v>
+        <v>4.889187680485258</v>
       </c>
       <c r="D4">
-        <v>2.137739203028708e-06</v>
+        <v>1.012529269310844e-06</v>
       </c>
       <c r="E4">
-        <v>1.009</v>
+        <v>1.012</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.1789237596779445</v>
+        <v>0.1386594449149919</v>
       </c>
       <c r="B5">
-        <v>0.03848168086892773</v>
+        <v>0.04397037212300751</v>
       </c>
       <c r="C5">
-        <v>4.649582753086483</v>
+        <v>3.153474447000149</v>
       </c>
       <c r="D5">
-        <v>3.326072131377621e-06</v>
+        <v>0.001613393527079192</v>
       </c>
       <c r="E5">
-        <v>1.482</v>
+        <v>1.901</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.5896458485383199</v>
+        <v>0.09782385431104501</v>
       </c>
       <c r="B6">
-        <v>0.03375276505388262</v>
+        <v>0.02739470066044493</v>
       </c>
       <c r="C6">
-        <v>17.46955686732671</v>
+        <v>3.570904297278648</v>
       </c>
       <c r="D6">
-        <v>2.44385415150239e-68</v>
+        <v>0.0003557508725838566</v>
       </c>
       <c r="E6">
-        <v>1.068</v>
+        <v>1.017</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.1690423234800643</v>
+        <v>0.09852980910460823</v>
       </c>
       <c r="B7">
-        <v>0.03391660016577125</v>
+        <v>0.03394227281447775</v>
       </c>
       <c r="C7">
-        <v>4.984058621850382</v>
+        <v>2.902864214283885</v>
       </c>
       <c r="D7">
-        <v>6.226420173367331e-07</v>
+        <v>0.003697669214550133</v>
       </c>
       <c r="E7">
-        <v>1.119</v>
+        <v>1.176</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.1598505233033204</v>
+        <v>0.1285591507903313</v>
       </c>
       <c r="B8">
-        <v>0.0334548220971973</v>
+        <v>0.04506537660620899</v>
       </c>
       <c r="C8">
-        <v>4.778101131098585</v>
+        <v>2.852725539469223</v>
       </c>
       <c r="D8">
-        <v>1.769583782460926e-06</v>
+        <v>0.004334604092332723</v>
       </c>
       <c r="E8">
-        <v>1.018</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>0.1308310092372296</v>
+        <v>0.2480619298614547</v>
       </c>
       <c r="B9">
-        <v>0.03312073277142814</v>
+        <v>0.03814501256845883</v>
       </c>
       <c r="C9">
-        <v>3.950124236082482</v>
+        <v>6.503128801340885</v>
       </c>
       <c r="D9">
-        <v>7.811063847392322e-05</v>
+        <v>7.866638400616443e-11</v>
       </c>
       <c r="E9">
-        <v>1.109</v>
+        <v>1.455</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.09441272582165894</v>
+        <v>0.1406045920890998</v>
       </c>
       <c r="B10">
-        <v>0.02742322653543831</v>
+        <v>0.03898327176966881</v>
       </c>
       <c r="C10">
-        <v>3.442801513514534</v>
+        <v>3.606793009059289</v>
       </c>
       <c r="D10">
-        <v>0.0005757216924978548</v>
+        <v>0.0003100047591186715</v>
       </c>
       <c r="E10">
-        <v>1.015</v>
+        <v>1.813</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11">
-        <v>0.1348725950536856</v>
+        <v>0.1166872759966023</v>
       </c>
       <c r="B11">
-        <v>0.03113009742329271</v>
+        <v>0.04863551945342295</v>
       </c>
       <c r="C11">
-        <v>4.332546513419159</v>
+        <v>2.399219280640169</v>
       </c>
       <c r="D11">
-        <v>1.473945101251338e-05</v>
+        <v>0.01643007231275663</v>
       </c>
       <c r="E11">
-        <v>1.109</v>
+        <v>2.603</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12">
-        <v>0.1454387032560523</v>
+        <v>-0.1778421866078817</v>
       </c>
       <c r="B12">
-        <v>0.03085162435369979</v>
+        <v>0.05230021027414258</v>
       </c>
       <c r="C12">
-        <v>4.71413438685315</v>
+        <v>-3.400410546643777</v>
       </c>
       <c r="D12">
-        <v>2.427404268360595e-06</v>
+        <v>0.000672847470307431</v>
       </c>
       <c r="E12">
-        <v>1.053</v>
+        <v>2.811</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13">
-        <v>-1.427338443907308</v>
+        <v>0.1782436511497816</v>
       </c>
       <c r="B13">
-        <v>0.03392686863826552</v>
+        <v>0.03476419805854268</v>
       </c>
       <c r="C13">
-        <v>-42.07103399744466</v>
+        <v>5.127218837311319</v>
       </c>
       <c r="D13">
+        <v>2.940536496215887e-07</v>
+      </c>
+      <c r="E13">
+        <v>1.174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>-1.410908757278547</v>
+      </c>
+      <c r="B14">
+        <v>0.03352621097114366</v>
+      </c>
+      <c r="C14">
+        <v>-42.08375227647795</v>
+      </c>
+      <c r="D14">
         <v>0</v>
       </c>
     </row>

--- a/Summary_for_Sample_LR_Model.xlsx
+++ b/Summary_for_Sample_LR_Model.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,219 +411,151 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
-        <v>0.1539904918020898</v>
+        <v>0.1379766286424876</v>
       </c>
       <c r="B2">
-        <v>0.02967996784325758</v>
+        <v>0.02976064633261979</v>
       </c>
       <c r="C2">
-        <v>5.188364509534735</v>
+        <v>4.636210756325389</v>
       </c>
       <c r="D2">
-        <v>2.121490321930391e-07</v>
+        <v>3.548541615638553e-06</v>
       </c>
       <c r="E2">
-        <v>1.061</v>
+        <v>1.056</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3">
-        <v>0.4758799425243964</v>
+        <v>0.5881308044823846</v>
       </c>
       <c r="B3">
-        <v>0.05053636257183669</v>
+        <v>0.03339961794105876</v>
       </c>
       <c r="C3">
-        <v>9.416584777900074</v>
+        <v>17.60890814740083</v>
       </c>
       <c r="D3">
-        <v>4.659987381596779e-21</v>
+        <v>2.104657257651846e-69</v>
       </c>
       <c r="E3">
-        <v>2.618</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>0.1427894820662683</v>
+        <v>0.2039860175257961</v>
       </c>
       <c r="B4">
-        <v>0.02920515459780759</v>
+        <v>0.03304023090174842</v>
       </c>
       <c r="C4">
-        <v>4.889187680485258</v>
+        <v>6.173867795669721</v>
       </c>
       <c r="D4">
-        <v>1.012529269310844e-06</v>
+        <v>6.66392700070353e-10</v>
       </c>
       <c r="E4">
-        <v>1.012</v>
+        <v>1.029</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>0.1386594449149919</v>
+        <v>0.1582637281086351</v>
       </c>
       <c r="B5">
-        <v>0.04397037212300751</v>
+        <v>0.03651327971811751</v>
       </c>
       <c r="C5">
-        <v>3.153474447000149</v>
+        <v>4.334415569634691</v>
       </c>
       <c r="D5">
-        <v>0.001613393527079192</v>
+        <v>1.461478647492447e-05</v>
       </c>
       <c r="E5">
-        <v>1.901</v>
+        <v>1.324</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>0.09782385431104501</v>
+        <v>0.2347354481888661</v>
       </c>
       <c r="B6">
-        <v>0.02739470066044493</v>
+        <v>0.03669874042144107</v>
       </c>
       <c r="C6">
-        <v>3.570904297278648</v>
+        <v>6.396280784931872</v>
       </c>
       <c r="D6">
-        <v>0.0003557508725838566</v>
+        <v>1.592071243728559e-10</v>
       </c>
       <c r="E6">
-        <v>1.017</v>
+        <v>1.372</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>0.09852980910460823</v>
+        <v>0.09725117074660999</v>
       </c>
       <c r="B7">
-        <v>0.03394227281447775</v>
+        <v>0.03024680123458385</v>
       </c>
       <c r="C7">
-        <v>2.902864214283885</v>
+        <v>3.215254730322164</v>
       </c>
       <c r="D7">
-        <v>0.003697669214550133</v>
+        <v>0.001303288150974438</v>
       </c>
       <c r="E7">
-        <v>1.176</v>
+        <v>1.061</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>0.1285591507903313</v>
+        <v>0.1425744163531737</v>
       </c>
       <c r="B8">
-        <v>0.04506537660620899</v>
+        <v>0.02908117770403507</v>
       </c>
       <c r="C8">
-        <v>2.852725539469223</v>
+        <v>4.902635574259814</v>
       </c>
       <c r="D8">
-        <v>0.004334604092332723</v>
+        <v>9.455931014025112e-07</v>
       </c>
       <c r="E8">
-        <v>2.22</v>
+        <v>1.007</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>0.2480619298614547</v>
+        <v>0.09701496688705029</v>
       </c>
       <c r="B9">
-        <v>0.03814501256845883</v>
+        <v>0.0272238053614934</v>
       </c>
       <c r="C9">
-        <v>6.503128801340885</v>
+        <v>3.56360786447117</v>
       </c>
       <c r="D9">
-        <v>7.866638400616443e-11</v>
+        <v>0.0003657922825042493</v>
       </c>
       <c r="E9">
-        <v>1.455</v>
+        <v>1.013</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>0.1406045920890998</v>
+        <v>-1.40269677508074</v>
       </c>
       <c r="B10">
-        <v>0.03898327176966881</v>
+        <v>0.03330548443204401</v>
       </c>
       <c r="C10">
-        <v>3.606793009059289</v>
+        <v>-42.11608985729604</v>
       </c>
       <c r="D10">
-        <v>0.0003100047591186715</v>
-      </c>
-      <c r="E10">
-        <v>1.813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>0.1166872759966023</v>
-      </c>
-      <c r="B11">
-        <v>0.04863551945342295</v>
-      </c>
-      <c r="C11">
-        <v>2.399219280640169</v>
-      </c>
-      <c r="D11">
-        <v>0.01643007231275663</v>
-      </c>
-      <c r="E11">
-        <v>2.603</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>-0.1778421866078817</v>
-      </c>
-      <c r="B12">
-        <v>0.05230021027414258</v>
-      </c>
-      <c r="C12">
-        <v>-3.400410546643777</v>
-      </c>
-      <c r="D12">
-        <v>0.000672847470307431</v>
-      </c>
-      <c r="E12">
-        <v>2.811</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>0.1782436511497816</v>
-      </c>
-      <c r="B13">
-        <v>0.03476419805854268</v>
-      </c>
-      <c r="C13">
-        <v>5.127218837311319</v>
-      </c>
-      <c r="D13">
-        <v>2.940536496215887e-07</v>
-      </c>
-      <c r="E13">
-        <v>1.174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>-1.410908757278547</v>
-      </c>
-      <c r="B14">
-        <v>0.03352621097114366</v>
-      </c>
-      <c r="C14">
-        <v>-42.08375227647795</v>
-      </c>
-      <c r="D14">
         <v>0</v>
       </c>
     </row>
